--- a/LiCl_Logbook.xlsx
+++ b/LiCl_Logbook.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tiago\Desktop\Estágio CTN\Novo LiCl\LiCl\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="30" windowWidth="20115" windowHeight="9270"/>
   </bookViews>
@@ -21,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="88">
   <si>
     <t>HV</t>
   </si>
@@ -162,6 +157,9 @@
   </si>
   <si>
     <t>LiCl_017</t>
+  </si>
+  <si>
+    <t>LiCl_018</t>
   </si>
   <si>
     <t>LiCl_019</t>
@@ -287,8 +285,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -347,14 +345,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -401,7 +391,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -433,10 +423,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -468,7 +457,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -644,16 +632,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Y59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:AG59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -721,7 +709,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>14</v>
@@ -794,7 +782,7 @@
       </c>
       <c r="Y2" s="2"/>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25">
       <c r="A3" s="1" t="s">
         <v>29</v>
       </c>
@@ -863,7 +851,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25">
       <c r="A4" s="1"/>
       <c r="B4" s="1">
         <v>812</v>
@@ -930,7 +918,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25">
       <c r="A5" s="1"/>
       <c r="B5" s="1">
         <v>833</v>
@@ -997,7 +985,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25">
       <c r="A6" s="1"/>
       <c r="B6" s="1">
         <v>854</v>
@@ -1064,7 +1052,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25">
       <c r="A7" s="1"/>
       <c r="B7" s="1">
         <v>874</v>
@@ -1131,7 +1119,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25">
       <c r="A8" s="1"/>
       <c r="B8" s="1">
         <v>896</v>
@@ -1198,7 +1186,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25">
       <c r="A9" s="1"/>
       <c r="B9" s="1">
         <v>919</v>
@@ -1265,7 +1253,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25">
       <c r="A10" s="1"/>
       <c r="B10" s="1">
         <v>939</v>
@@ -1332,7 +1320,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25">
       <c r="A11" s="1"/>
       <c r="B11" s="1">
         <v>963</v>
@@ -1399,7 +1387,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25">
       <c r="A12" s="1"/>
       <c r="B12" s="1">
         <v>986</v>
@@ -1466,7 +1454,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25">
       <c r="A13" s="1"/>
       <c r="B13" s="1">
         <v>1007</v>
@@ -1533,7 +1521,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25">
       <c r="A14" s="1"/>
       <c r="B14" s="1">
         <v>1030</v>
@@ -1600,7 +1588,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25">
       <c r="A15" s="1"/>
       <c r="B15" s="1">
         <v>1057</v>
@@ -1665,7 +1653,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25">
       <c r="A16" s="1"/>
       <c r="B16" s="1">
         <v>1082</v>
@@ -1730,7 +1718,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25">
       <c r="A17" s="1"/>
       <c r="B17" s="1">
         <v>792</v>
@@ -1795,7 +1783,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25">
       <c r="B18" s="1">
         <v>773</v>
       </c>
@@ -1859,7 +1847,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25">
       <c r="B19" s="1">
         <v>755</v>
       </c>
@@ -1923,33 +1911,71 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
+    <row r="20" spans="1:25">
+      <c r="B20" s="1">
+        <v>734</v>
+      </c>
+      <c r="C20" s="1">
+        <v>733.5</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1477.7355500000001</v>
+      </c>
+      <c r="E20" s="1">
+        <v>50</v>
+      </c>
+      <c r="F20" s="1">
+        <v>100</v>
+      </c>
+      <c r="G20" s="1">
+        <v>1757.5</v>
+      </c>
       <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
+      <c r="I20" s="1">
+        <v>3550</v>
+      </c>
+      <c r="J20" s="1">
+        <v>1162</v>
+      </c>
+      <c r="K20" s="1">
+        <v>3.4815526744208854E-2</v>
+      </c>
+      <c r="L20" s="1">
+        <v>101966</v>
+      </c>
+      <c r="M20" s="1">
+        <v>1748.6590000000001</v>
+      </c>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="1"/>
-      <c r="R20" s="1"/>
-      <c r="S20" s="1"/>
-      <c r="T20" s="1"/>
+      <c r="P20" s="1">
+        <v>3214</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>932</v>
+      </c>
+      <c r="R20" s="1">
+        <v>7.8749418077573324E-2</v>
+      </c>
+      <c r="S20" s="1">
+        <v>40813</v>
+      </c>
+      <c r="T20" s="1">
+        <v>1752.3420000000001</v>
+      </c>
       <c r="U20" s="1"/>
       <c r="V20" s="1"/>
-      <c r="W20" s="1"/>
-      <c r="X20" s="1"/>
-      <c r="Y20" s="1"/>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="W20" s="1">
+        <v>69.5</v>
+      </c>
+      <c r="X20" s="1">
+        <v>90</v>
+      </c>
+      <c r="Y20" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25">
       <c r="B21" s="1">
         <v>713</v>
       </c>
@@ -2010,10 +2036,10 @@
         <v>90</v>
       </c>
       <c r="Y21" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25">
       <c r="B22" s="1">
         <v>692</v>
       </c>
@@ -2074,10 +2100,10 @@
         <v>90</v>
       </c>
       <c r="Y22" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25">
       <c r="B23" s="1">
         <v>670</v>
       </c>
@@ -2138,10 +2164,10 @@
         <v>90</v>
       </c>
       <c r="Y23" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25">
       <c r="B24" s="1">
         <v>650</v>
       </c>
@@ -2202,10 +2228,10 @@
         <v>90</v>
       </c>
       <c r="Y24" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25">
       <c r="B25" s="1">
         <v>630</v>
       </c>
@@ -2266,10 +2292,10 @@
         <v>90</v>
       </c>
       <c r="Y25" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25">
       <c r="B26" s="1">
         <v>610</v>
       </c>
@@ -2326,10 +2352,10 @@
         <v>90</v>
       </c>
       <c r="Y26" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25">
       <c r="B27" s="1">
         <v>580</v>
       </c>
@@ -2386,10 +2412,10 @@
         <v>90</v>
       </c>
       <c r="Y27" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25">
       <c r="B28" s="1">
         <v>563</v>
       </c>
@@ -2446,10 +2472,10 @@
         <v>90</v>
       </c>
       <c r="Y28" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25">
       <c r="B29" s="1">
         <v>545</v>
       </c>
@@ -2506,10 +2532,10 @@
         <v>90</v>
       </c>
       <c r="Y29" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25">
       <c r="B30" s="1">
         <v>1104</v>
       </c>
@@ -2570,10 +2596,10 @@
         <v>90</v>
       </c>
       <c r="Y30" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25">
       <c r="B31" s="1">
         <v>1128</v>
       </c>
@@ -2634,10 +2660,10 @@
         <v>90</v>
       </c>
       <c r="Y31" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25">
       <c r="B32" s="1">
         <v>1148</v>
       </c>
@@ -2698,10 +2724,10 @@
         <v>90</v>
       </c>
       <c r="Y32" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25">
       <c r="B33" s="1">
         <v>1170</v>
       </c>
@@ -2762,10 +2788,10 @@
         <v>90</v>
       </c>
       <c r="Y33" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25">
       <c r="A34" s="1"/>
       <c r="B34" s="1">
         <v>1192</v>
@@ -2827,10 +2853,10 @@
         <v>90</v>
       </c>
       <c r="Y34" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25">
       <c r="A35" s="1"/>
       <c r="B35" s="1">
         <v>1213</v>
@@ -2892,10 +2918,10 @@
         <v>90</v>
       </c>
       <c r="Y35" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25">
       <c r="A36" s="1"/>
       <c r="B36" s="1">
         <v>1235</v>
@@ -2957,10 +2983,10 @@
         <v>90</v>
       </c>
       <c r="Y36" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25">
       <c r="A37" s="1"/>
       <c r="B37" s="1">
         <v>1261</v>
@@ -3020,10 +3046,10 @@
         <v>90</v>
       </c>
       <c r="Y37" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25">
       <c r="A38" s="1"/>
       <c r="B38" s="1">
         <v>1282</v>
@@ -3085,10 +3111,10 @@
         <v>90</v>
       </c>
       <c r="Y38" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25">
       <c r="A39" s="1"/>
       <c r="B39" s="1">
         <v>1299</v>
@@ -3150,10 +3176,10 @@
         <v>90</v>
       </c>
       <c r="Y39" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25">
       <c r="A40" s="1"/>
       <c r="B40" s="1">
         <v>1324</v>
@@ -3215,10 +3241,10 @@
         <v>90</v>
       </c>
       <c r="Y40" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25">
       <c r="A41" s="1"/>
       <c r="B41" s="1">
         <v>1346</v>
@@ -3272,12 +3298,12 @@
         <v>90</v>
       </c>
       <c r="Y41" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25">
       <c r="A42" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B42" s="1">
         <v>1247</v>
@@ -3339,10 +3365,10 @@
         <v>90</v>
       </c>
       <c r="Y42" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25">
       <c r="A43" s="1"/>
       <c r="B43" s="1">
         <v>1247</v>
@@ -3404,10 +3430,10 @@
         <v>80</v>
       </c>
       <c r="Y43" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25">
       <c r="A44" s="1"/>
       <c r="B44" s="1">
         <v>1247</v>
@@ -3469,10 +3495,10 @@
         <v>70</v>
       </c>
       <c r="Y44" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25">
       <c r="A45" s="1"/>
       <c r="B45" s="1">
         <v>1088</v>
@@ -3534,10 +3560,10 @@
         <v>70</v>
       </c>
       <c r="Y45" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25">
       <c r="A46" s="1"/>
       <c r="B46" s="1">
         <v>1088</v>
@@ -3599,10 +3625,10 @@
         <v>80</v>
       </c>
       <c r="Y46" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25">
       <c r="A47" s="1"/>
       <c r="B47" s="1">
         <v>1088</v>
@@ -3662,10 +3688,10 @@
         <v>90</v>
       </c>
       <c r="Y47" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25">
       <c r="A48" s="1"/>
       <c r="B48" s="1">
         <v>808</v>
@@ -3727,10 +3753,10 @@
         <v>90</v>
       </c>
       <c r="Y48" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="49" spans="1:25">
       <c r="A49" s="1"/>
       <c r="B49" s="1">
         <v>808</v>
@@ -3792,10 +3818,10 @@
         <v>90</v>
       </c>
       <c r="Y49" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="50" spans="1:25">
       <c r="A50" s="1"/>
       <c r="B50" s="1">
         <v>808</v>
@@ -3855,10 +3881,10 @@
         <v>80</v>
       </c>
       <c r="Y50" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="51" spans="1:25">
       <c r="A51" s="1"/>
       <c r="B51" s="1">
         <v>808</v>
@@ -3918,10 +3944,10 @@
         <v>70</v>
       </c>
       <c r="Y51" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="52" spans="1:25">
       <c r="A52" s="1"/>
       <c r="B52" s="1">
         <v>808</v>
@@ -3983,10 +4009,10 @@
         <v>90</v>
       </c>
       <c r="Y52" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="53" spans="1:25">
       <c r="A53" s="1"/>
       <c r="B53" s="1">
         <v>909</v>
@@ -4046,10 +4072,10 @@
         <v>90</v>
       </c>
       <c r="Y53" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="54" spans="1:25">
       <c r="A54" s="1"/>
       <c r="B54" s="1">
         <v>909</v>
@@ -4111,10 +4137,10 @@
         <v>80</v>
       </c>
       <c r="Y54" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="55" spans="1:25">
       <c r="A55" s="1"/>
       <c r="B55" s="1">
         <v>909</v>
@@ -4174,10 +4200,10 @@
         <v>70</v>
       </c>
       <c r="Y55" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="56" spans="1:25">
       <c r="A56" s="1"/>
       <c r="B56" s="1">
         <v>930</v>
@@ -4237,10 +4263,10 @@
         <v>90</v>
       </c>
       <c r="Y56" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="57" spans="1:25">
       <c r="A57" s="1"/>
       <c r="B57" s="1">
         <v>998</v>
@@ -4298,10 +4324,10 @@
         <v>70</v>
       </c>
       <c r="Y57" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="58" spans="1:25">
       <c r="A58" s="1"/>
       <c r="B58" s="1">
         <v>998</v>
@@ -4359,10 +4385,10 @@
         <v>80</v>
       </c>
       <c r="Y58" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="59" spans="1:25">
       <c r="A59" s="1"/>
       <c r="B59" s="1">
         <v>998</v>
@@ -4416,7 +4442,7 @@
         <v>90</v>
       </c>
       <c r="Y59" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -4425,24 +4451,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/LiCl_Logbook.xlsx
+++ b/LiCl_Logbook.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19001"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utilizador\PycharmProjects\CTN\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="20115" windowHeight="9270"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="20115" windowHeight="9270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -285,8 +290,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -295,7 +300,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -320,6 +325,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -333,23 +356,34 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -391,7 +425,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -423,9 +457,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -457,6 +509,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -632,16 +702,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:AG59"/>
+    <sheetView tabSelected="1" topLeftCell="L40" workbookViewId="0">
+      <selection activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -709,7 +779,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>14</v>
@@ -782,7 +852,7 @@
       </c>
       <c r="Y2" s="2"/>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>29</v>
       </c>
@@ -851,7 +921,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1">
         <v>812</v>
@@ -918,7 +988,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1">
         <v>833</v>
@@ -985,7 +1055,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1">
         <v>854</v>
@@ -1052,7 +1122,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1">
         <v>874</v>
@@ -1119,7 +1189,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1">
         <v>896</v>
@@ -1186,7 +1256,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1">
         <v>919</v>
@@ -1253,7 +1323,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1">
         <v>939</v>
@@ -1320,7 +1390,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1">
         <v>963</v>
@@ -1387,7 +1457,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1">
         <v>986</v>
@@ -1454,7 +1524,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1">
         <v>1007</v>
@@ -1521,7 +1591,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1">
         <v>1030</v>
@@ -1588,7 +1658,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1">
         <v>1057</v>
@@ -1653,7 +1723,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1">
         <v>1082</v>
@@ -1718,7 +1788,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1">
         <v>792</v>
@@ -1783,7 +1853,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B18" s="1">
         <v>773</v>
       </c>
@@ -1847,7 +1917,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B19" s="1">
         <v>755</v>
       </c>
@@ -1911,7 +1981,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B20" s="1">
         <v>734</v>
       </c>
@@ -1975,7 +2045,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B21" s="1">
         <v>713</v>
       </c>
@@ -2039,7 +2109,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B22" s="1">
         <v>692</v>
       </c>
@@ -2103,7 +2173,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:25">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B23" s="1">
         <v>670</v>
       </c>
@@ -2167,7 +2237,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:25">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B24" s="1">
         <v>650</v>
       </c>
@@ -2231,7 +2301,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="1:25">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B25" s="1">
         <v>630</v>
       </c>
@@ -2295,7 +2365,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:25">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B26" s="1">
         <v>610</v>
       </c>
@@ -2355,7 +2425,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:25">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B27" s="1">
         <v>580</v>
       </c>
@@ -2415,7 +2485,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="1:25">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B28" s="1">
         <v>563</v>
       </c>
@@ -2475,7 +2545,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:25">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B29" s="1">
         <v>545</v>
       </c>
@@ -2535,7 +2605,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="30" spans="1:25">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B30" s="1">
         <v>1104</v>
       </c>
@@ -2599,7 +2669,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="1:25">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B31" s="1">
         <v>1128</v>
       </c>
@@ -2663,7 +2733,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="32" spans="1:25">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B32" s="1">
         <v>1148</v>
       </c>
@@ -2727,7 +2797,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="1:25">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B33" s="1">
         <v>1170</v>
       </c>
@@ -2791,7 +2861,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="1:25">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="1">
         <v>1192</v>
@@ -2856,7 +2926,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="35" spans="1:25">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="1">
         <v>1213</v>
@@ -2921,7 +2991,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="36" spans="1:25">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="1">
         <v>1235</v>
@@ -2986,7 +3056,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="37" spans="1:25">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="1">
         <v>1261</v>
@@ -3049,7 +3119,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="38" spans="1:25">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1">
         <v>1282</v>
@@ -3114,7 +3184,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="39" spans="1:25">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="1">
         <v>1299</v>
@@ -3179,7 +3249,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="40" spans="1:25">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="1">
         <v>1324</v>
@@ -3244,7 +3314,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="41" spans="1:25">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="1">
         <v>1346</v>
@@ -3301,7 +3371,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="42" spans="1:25">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>69</v>
       </c>
@@ -3358,17 +3428,17 @@
       </c>
       <c r="U42" s="1"/>
       <c r="V42" s="1"/>
-      <c r="W42" s="1">
-        <v>69.5</v>
-      </c>
-      <c r="X42" s="1">
-        <v>90</v>
-      </c>
-      <c r="Y42" s="1" t="s">
+      <c r="W42" s="5">
+        <v>69.5</v>
+      </c>
+      <c r="X42" s="5">
+        <v>90</v>
+      </c>
+      <c r="Y42" s="5" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="43" spans="1:25">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="1">
         <v>1247</v>
@@ -3423,17 +3493,17 @@
       </c>
       <c r="U43" s="1"/>
       <c r="V43" s="1"/>
-      <c r="W43" s="1">
+      <c r="W43" s="7">
         <v>59.5</v>
       </c>
-      <c r="X43" s="1">
+      <c r="X43" s="7">
         <v>80</v>
       </c>
-      <c r="Y43" s="1" t="s">
+      <c r="Y43" s="7" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="44" spans="1:25">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="1">
         <v>1247</v>
@@ -3488,17 +3558,17 @@
       </c>
       <c r="U44" s="1"/>
       <c r="V44" s="1"/>
-      <c r="W44" s="1">
+      <c r="W44" s="6">
         <v>49.5</v>
       </c>
-      <c r="X44" s="1">
+      <c r="X44" s="6">
         <v>70</v>
       </c>
-      <c r="Y44" s="1" t="s">
+      <c r="Y44" s="6" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="45" spans="1:25">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="1">
         <v>1088</v>
@@ -3553,17 +3623,17 @@
       </c>
       <c r="U45" s="1"/>
       <c r="V45" s="1"/>
-      <c r="W45" s="1">
+      <c r="W45" s="6">
         <v>49.5</v>
       </c>
-      <c r="X45" s="1">
+      <c r="X45" s="6">
         <v>70</v>
       </c>
-      <c r="Y45" s="1" t="s">
+      <c r="Y45" s="6" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="46" spans="1:25">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="1">
         <v>1088</v>
@@ -3618,17 +3688,17 @@
       </c>
       <c r="U46" s="1"/>
       <c r="V46" s="1"/>
-      <c r="W46" s="1">
+      <c r="W46" s="7">
         <v>59.5</v>
       </c>
-      <c r="X46" s="1">
+      <c r="X46" s="7">
         <v>80</v>
       </c>
-      <c r="Y46" s="1" t="s">
+      <c r="Y46" s="7" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="47" spans="1:25">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="1">
         <v>1088</v>
@@ -3681,17 +3751,17 @@
       </c>
       <c r="U47" s="1"/>
       <c r="V47" s="1"/>
-      <c r="W47" s="1">
-        <v>69.5</v>
-      </c>
-      <c r="X47" s="1">
-        <v>90</v>
-      </c>
-      <c r="Y47" s="1" t="s">
+      <c r="W47" s="5">
+        <v>69.5</v>
+      </c>
+      <c r="X47" s="5">
+        <v>90</v>
+      </c>
+      <c r="Y47" s="5" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="48" spans="1:25">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="1">
         <v>808</v>
@@ -3746,17 +3816,17 @@
       </c>
       <c r="U48" s="1"/>
       <c r="V48" s="1"/>
-      <c r="W48" s="1">
-        <v>69.5</v>
-      </c>
-      <c r="X48" s="1">
-        <v>90</v>
-      </c>
-      <c r="Y48" s="1" t="s">
+      <c r="W48" s="5">
+        <v>69.5</v>
+      </c>
+      <c r="X48" s="5">
+        <v>90</v>
+      </c>
+      <c r="Y48" s="5" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="49" spans="1:25">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="1">
         <v>808</v>
@@ -3811,17 +3881,17 @@
       </c>
       <c r="U49" s="1"/>
       <c r="V49" s="1"/>
-      <c r="W49" s="1">
-        <v>69.5</v>
-      </c>
-      <c r="X49" s="1">
-        <v>90</v>
-      </c>
-      <c r="Y49" s="1" t="s">
+      <c r="W49" s="5">
+        <v>69.5</v>
+      </c>
+      <c r="X49" s="5">
+        <v>90</v>
+      </c>
+      <c r="Y49" s="5" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="50" spans="1:25">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="1">
         <v>808</v>
@@ -3874,17 +3944,17 @@
       </c>
       <c r="U50" s="1"/>
       <c r="V50" s="1"/>
-      <c r="W50" s="1">
+      <c r="W50" s="7">
         <v>59.5</v>
       </c>
-      <c r="X50" s="1">
+      <c r="X50" s="7">
         <v>80</v>
       </c>
-      <c r="Y50" s="1" t="s">
+      <c r="Y50" s="7" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="51" spans="1:25">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="1">
         <v>808</v>
@@ -3937,17 +4007,17 @@
       </c>
       <c r="U51" s="1"/>
       <c r="V51" s="1"/>
-      <c r="W51" s="1">
+      <c r="W51" s="6">
         <v>49.5</v>
       </c>
-      <c r="X51" s="1">
+      <c r="X51" s="6">
         <v>70</v>
       </c>
-      <c r="Y51" s="1" t="s">
+      <c r="Y51" s="6" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="52" spans="1:25">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="1">
         <v>808</v>
@@ -4002,17 +4072,17 @@
       </c>
       <c r="U52" s="1"/>
       <c r="V52" s="1"/>
-      <c r="W52" s="1">
-        <v>69.5</v>
-      </c>
-      <c r="X52" s="1">
-        <v>90</v>
-      </c>
-      <c r="Y52" s="1" t="s">
+      <c r="W52" s="5">
+        <v>69.5</v>
+      </c>
+      <c r="X52" s="5">
+        <v>90</v>
+      </c>
+      <c r="Y52" s="5" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="53" spans="1:25">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" s="1">
         <v>909</v>
@@ -4065,17 +4135,17 @@
       </c>
       <c r="U53" s="1"/>
       <c r="V53" s="1"/>
-      <c r="W53" s="1">
-        <v>69.5</v>
-      </c>
-      <c r="X53" s="1">
-        <v>90</v>
-      </c>
-      <c r="Y53" s="1" t="s">
+      <c r="W53" s="5">
+        <v>69.5</v>
+      </c>
+      <c r="X53" s="5">
+        <v>90</v>
+      </c>
+      <c r="Y53" s="5" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="54" spans="1:25">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="B54" s="1">
         <v>909</v>
@@ -4130,17 +4200,17 @@
       </c>
       <c r="U54" s="1"/>
       <c r="V54" s="1"/>
-      <c r="W54" s="1">
+      <c r="W54" s="7">
         <v>59.5</v>
       </c>
-      <c r="X54" s="1">
+      <c r="X54" s="7">
         <v>80</v>
       </c>
-      <c r="Y54" s="1" t="s">
+      <c r="Y54" s="7" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="55" spans="1:25">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" s="1">
         <v>909</v>
@@ -4193,17 +4263,17 @@
       </c>
       <c r="U55" s="1"/>
       <c r="V55" s="1"/>
-      <c r="W55" s="1">
+      <c r="W55" s="6">
         <v>49.5</v>
       </c>
-      <c r="X55" s="1">
+      <c r="X55" s="6">
         <v>70</v>
       </c>
-      <c r="Y55" s="1" t="s">
+      <c r="Y55" s="6" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="56" spans="1:25">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="B56" s="1">
         <v>930</v>
@@ -4256,17 +4326,17 @@
       </c>
       <c r="U56" s="1"/>
       <c r="V56" s="1"/>
-      <c r="W56" s="1">
-        <v>69.5</v>
-      </c>
-      <c r="X56" s="1">
-        <v>90</v>
-      </c>
-      <c r="Y56" s="1" t="s">
+      <c r="W56" s="5">
+        <v>69.5</v>
+      </c>
+      <c r="X56" s="5">
+        <v>90</v>
+      </c>
+      <c r="Y56" s="5" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="57" spans="1:25">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="B57" s="1">
         <v>998</v>
@@ -4317,17 +4387,17 @@
       </c>
       <c r="U57" s="1"/>
       <c r="V57" s="1"/>
-      <c r="W57" s="1">
+      <c r="W57" s="6">
         <v>49.5</v>
       </c>
-      <c r="X57" s="1">
+      <c r="X57" s="6">
         <v>70</v>
       </c>
-      <c r="Y57" s="1" t="s">
+      <c r="Y57" s="6" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="58" spans="1:25">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="B58" s="1">
         <v>998</v>
@@ -4378,17 +4448,17 @@
       </c>
       <c r="U58" s="1"/>
       <c r="V58" s="1"/>
-      <c r="W58" s="1">
+      <c r="W58" s="7">
         <v>59.5</v>
       </c>
-      <c r="X58" s="1">
+      <c r="X58" s="7">
         <v>80</v>
       </c>
-      <c r="Y58" s="1" t="s">
+      <c r="Y58" s="7" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="59" spans="1:25">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="B59" s="1">
         <v>998</v>
@@ -4435,13 +4505,13 @@
       </c>
       <c r="U59" s="1"/>
       <c r="V59" s="1"/>
-      <c r="W59" s="1">
-        <v>69.5</v>
-      </c>
-      <c r="X59" s="1">
-        <v>90</v>
-      </c>
-      <c r="Y59" s="1" t="s">
+      <c r="W59" s="5">
+        <v>69.5</v>
+      </c>
+      <c r="X59" s="5">
+        <v>90</v>
+      </c>
+      <c r="Y59" s="5" t="s">
         <v>87</v>
       </c>
     </row>
@@ -4451,24 +4521,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
